--- a/lien-specialty-slice-coding/ig/StructureDefinition-ror-organization-nb-temporary-social-help-place.xlsx
+++ b/lien-specialty-slice-coding/ig/StructureDefinition-ror-organization-nb-temporary-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T15:20:10+00:00</t>
+    <t>2024-03-14T16:30:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lien-specialty-slice-coding/ig/StructureDefinition-ror-organization-nb-temporary-social-help-place.xlsx
+++ b/lien-specialty-slice-coding/ig/StructureDefinition-ror-organization-nb-temporary-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-14T16:30:20+00:00</t>
+    <t>2024-03-15T15:49:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lien-specialty-slice-coding/ig/StructureDefinition-ror-organization-nb-temporary-social-help-place.xlsx
+++ b/lien-specialty-slice-coding/ig/StructureDefinition-ror-organization-nb-temporary-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T15:49:47+00:00</t>
+    <t>2024-03-19T08:25:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lien-specialty-slice-coding/ig/StructureDefinition-ror-organization-nb-temporary-social-help-place.xlsx
+++ b/lien-specialty-slice-coding/ig/StructureDefinition-ror-organization-nb-temporary-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T08:25:58+00:00</t>
+    <t>2024-03-19T09:09:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lien-specialty-slice-coding/ig/StructureDefinition-ror-organization-nb-temporary-social-help-place.xlsx
+++ b/lien-specialty-slice-coding/ig/StructureDefinition-ror-organization-nb-temporary-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T09:09:18+00:00</t>
+    <t>2024-03-19T15:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lien-specialty-slice-coding/ig/StructureDefinition-ror-organization-nb-temporary-social-help-place.xlsx
+++ b/lien-specialty-slice-coding/ig/StructureDefinition-ror-organization-nb-temporary-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T15:15:55+00:00</t>
+    <t>2024-03-19T16:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
